--- a/meta/MelanomaCohort2_MarkerDescriptions.xlsx
+++ b/meta/MelanomaCohort2_MarkerDescriptions.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10513"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/SOL/ifs/work/socci/Work/Users/MellingI/Halo/Melanoma_IL2__Final/Cohort2/meta/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\HaloData\Melanoma_IL2__Final\Cohort2\MetaData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0FA3B49-7888-9D48-A747-CEFCF2CDD1A5}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20160" windowHeight="15280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="41">
   <si>
     <t>Marker_name</t>
   </si>
@@ -148,12 +147,15 @@
   </si>
   <si>
     <t>ICOS</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -521,20 +523,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -545,15 +545,18 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>33</v>
       </c>
       <c r="B2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -564,7 +567,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -575,7 +578,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -586,7 +589,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -597,7 +600,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -608,7 +611,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -619,7 +622,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -630,7 +633,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -641,7 +644,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -652,7 +655,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -663,7 +666,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -671,148 +674,137 @@
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
         <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>22</v>
-      </c>
-      <c r="B30" s="1" t="s">
         <v>28</v>
       </c>
     </row>

--- a/meta/MelanomaCohort2_MarkerDescriptions.xlsx
+++ b/meta/MelanomaCohort2_MarkerDescriptions.xlsx
@@ -1,33 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\HaloData\Melanoma_IL2__Final\Cohort2\MetaData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="26004"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="780" yWindow="0" windowWidth="25600" windowHeight="14060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="47">
   <si>
     <t>Marker_name</t>
   </si>
@@ -149,14 +145,32 @@
     <t>ICOS</t>
   </si>
   <si>
-    <t>x</t>
+    <t>CD3,CD8,CD20,PCK26</t>
+  </si>
+  <si>
+    <t>Opposition_markers</t>
+  </si>
+  <si>
+    <t>Compatible_markers</t>
+  </si>
+  <si>
+    <t>SOX10,PCK26</t>
+  </si>
+  <si>
+    <t>CD20,SOX10,PCK26</t>
+  </si>
+  <si>
+    <t>CD8,FOXP3,CD56,SOX10,PCK26</t>
+  </si>
+  <si>
+    <t>CD45,CD3,CD4,CD8,FOXP3,CD56,CD20,CD14,CD163,CD68,SOX10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,13 +194,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -198,20 +226,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -270,7 +304,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -322,7 +356,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -516,7 +550,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -524,28 +558,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" customWidth="1"/>
+    <col min="4" max="4" width="49.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" s="3" customFormat="1">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -553,10 +596,13 @@
         <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -566,8 +612,11 @@
       <c r="C3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -577,8 +626,11 @@
       <c r="C4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -588,8 +640,11 @@
       <c r="C5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -599,8 +654,11 @@
       <c r="C6" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -610,8 +668,11 @@
       <c r="C7" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -621,8 +682,11 @@
       <c r="C8" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -632,8 +696,11 @@
       <c r="C9" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -643,8 +710,11 @@
       <c r="C10" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -654,8 +724,11 @@
       <c r="C11" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -665,8 +738,14 @@
       <c r="C12" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -674,10 +753,10 @@
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -685,10 +764,13 @@
         <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="D14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -696,7 +778,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -704,7 +786,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -712,7 +794,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -720,7 +802,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -728,7 +810,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -736,7 +818,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -744,7 +826,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -752,7 +834,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -760,7 +842,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -768,7 +850,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -776,7 +858,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -784,7 +866,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -792,7 +874,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -800,7 +882,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -817,4 +899,284 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AC29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AC2" sqref="AC2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:29">
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W1" t="s">
+        <v>18</v>
+      </c>
+      <c r="X1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="L2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:29">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:29">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:29">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:29">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:29">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:29">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:29">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:29">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:29">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:29">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="M13" s="2"/>
+    </row>
+    <row r="14" spans="1:29">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="N14" s="2"/>
+    </row>
+    <row r="15" spans="1:29">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="O15" s="2"/>
+    </row>
+    <row r="16" spans="1:29">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="P16" s="2"/>
+    </row>
+    <row r="17" spans="1:29">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q17" s="2"/>
+    </row>
+    <row r="18" spans="1:29">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="R18" s="2"/>
+    </row>
+    <row r="19" spans="1:29">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="S19" s="2"/>
+    </row>
+    <row r="20" spans="1:29">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="T20" s="2"/>
+    </row>
+    <row r="21" spans="1:29">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="U21" s="2"/>
+    </row>
+    <row r="22" spans="1:29">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="V22" s="2"/>
+    </row>
+    <row r="23" spans="1:29">
+      <c r="A23" t="s">
+        <v>18</v>
+      </c>
+      <c r="W23" s="2"/>
+    </row>
+    <row r="24" spans="1:29">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+      <c r="X24" s="2"/>
+    </row>
+    <row r="25" spans="1:29">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y25" s="2"/>
+    </row>
+    <row r="26" spans="1:29">
+      <c r="A26" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z26" s="2"/>
+    </row>
+    <row r="27" spans="1:29">
+      <c r="A27" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA27" s="2"/>
+    </row>
+    <row r="28" spans="1:29">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB28" s="2"/>
+    </row>
+    <row r="29" spans="1:29">
+      <c r="A29" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC29" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>